--- a/data/trans_camb/P37A-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P37A-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-7,91</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,43</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,56</t>
+          <t>-2,89</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-2,03</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-1,46</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,15</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-3,4</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-3,58</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-4,93</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 4,49</t>
+          <t>-5,51; 4,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 2,88</t>
+          <t>-7,53; 3,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 4,58</t>
+          <t>-9,46; 2,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 2,44</t>
+          <t>-9,95; 0,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 4,52</t>
+          <t>-12,86; -2,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 0,33</t>
+          <t>-7,34; 2,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 2,05</t>
+          <t>-4,84; 4,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 2,31</t>
+          <t>-8,34; 2,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 0,91</t>
+          <t>-7,66; 2,15</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-7,24; 2,43</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-4,74; 1,97</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,42; 2,51</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-7,25; 0,42</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-7,6; -0,21</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-8,13; -1,21</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,04%</t>
+          <t>-0,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,25%</t>
+          <t>-2,89%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,11%</t>
+          <t>-4,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,02%</t>
+          <t>-5,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,07%</t>
+          <t>-10,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-6,15%</t>
+          <t>-3,38%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-2,02%</t>
+          <t>-0,14%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-1,68%</t>
+          <t>-4,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-3,38%</t>
+          <t>-4,22%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-3,0%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-1,94%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-1,53%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-4,52%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-4,98%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-6,73%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 5,82</t>
+          <t>-6,71; 5,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 3,58</t>
+          <t>-9,27; 4,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 6,08</t>
+          <t>-11,74; 2,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 3,57</t>
+          <t>-12,54; 1,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 6,48</t>
+          <t>-15,77; -3,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 0,4</t>
+          <t>-9,94; 3,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 2,81</t>
+          <t>-6,58; 6,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 3,07</t>
+          <t>-11,57; 2,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 1,24</t>
+          <t>-10,86; 3,31</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-10,22; 3,75</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-6,14; 2,66</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-5,71; 3,48</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-9,49; 0,49</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-10,23; -0,28</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-10,87; -1,68</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>-5,75</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,41</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-9,09</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-12,03</t>
+          <t>-5,1</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>-8,59</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,91</t>
+          <t>-13,28</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-7,36</t>
+          <t>8,19</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6,37</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,33</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-3,19</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-9,48</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>6,64</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,78</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 5,54</t>
+          <t>-4,96; 6,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 7,74</t>
+          <t>-3,22; 8,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 4,14</t>
+          <t>-12,49; 1,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,81; -0,51</t>
+          <t>-1,77; 11,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,24; -3,48</t>
+          <t>-5,68; 10,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,18; -4,43</t>
+          <t>-10,09; 0,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 1,13</t>
+          <t>-13,93; -2,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,08; -0,11</t>
+          <t>-19,1; -7,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-13,54; -2,18</t>
+          <t>0,13; 15,71</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-2,96; 15,42</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-6,12; 1,89</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-6,89; 1,16</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-14,18; -4,82</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,08; 11,74</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,25; 10,13</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,48%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,27%</t>
+          <t>-7,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,98%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,74%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-15,54%</t>
+          <t>-6,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-3,59%</t>
+          <t>-11,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-4,91%</t>
+          <t>-17,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-9,22%</t>
+          <t>12,89%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9,74%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-2,94%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-4,03%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-11,99%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>9,54%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>5,23%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 7,03</t>
+          <t>-5,92; 8,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 10,04</t>
+          <t>-3,75; 10,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,8; 5,05</t>
+          <t>-14,85; 1,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,36; -0,64</t>
+          <t>-2,23; 16,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,06; -4,61</t>
+          <t>-6,89; 15,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,59; -5,96</t>
+          <t>-12,88; 0,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 1,43</t>
+          <t>-17,35; -4,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,73; -0,09</t>
+          <t>-24,21; -9,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,83; -2,84</t>
+          <t>0,41; 26,49</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-4,03; 26,15</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-7,4; 2,53</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-8,54; 1,47</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-17,57; -6,29</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1,46; 17,38</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; 14,81</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>4,26</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,58</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>10,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8,05</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,23</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>6,37</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,87</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4,36</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>4,42</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 11,66</t>
+          <t>-9,56; 9,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 12,52</t>
+          <t>-13,17; 10,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-5,59; 12,85</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-9,12; 14,31</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 21,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-11,74; 8,96</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-1,62; 17,61</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-5,85; 15,65</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-6,77; 9,67</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-2,8; 13,95</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-8,27; 5,94</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,57; 11,84</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-3,15; 11,81</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>-1,02%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>5,17%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,74%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-1,09%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>11,12%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>6,62%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>1,63%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>8,42%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-1,12%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>5,62%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>5,71%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 15,44</t>
+          <t>-11,05; 11,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 16,7</t>
+          <t>-15,0; 13,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-6,3; 16,76</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-12,16; 23,13</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,08; 34,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-15,09; 13,58</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-2,26; 26,85</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-7,58; 23,88</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-8,28; 13,45</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-3,18; 19,91</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-10,31; 8,1</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-4,29; 16,1</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-3,93; 16,24</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-3,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>-5,61</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,65</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>-2,43</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-6,15</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>-1,74</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-1,41</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>-4,31</t>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-1,3</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-4,86</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-2,04</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-2,92</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 3,06</t>
+          <t>-4,03; 3,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 3,26</t>
+          <t>-3,85; 3,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 2,18</t>
+          <t>-7,86; 0,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 0,62</t>
+          <t>-7,6; 0,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 1,26</t>
+          <t>-9,81; -1,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,52; -2,74</t>
+          <t>-6,46; -0,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 0,64</t>
+          <t>-5,8; 0,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 1,35</t>
+          <t>-10,25; -2,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,41; -1,73</t>
+          <t>-4,51; 3,44</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-3,93; 4,0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,19; 0,71</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-3,83; 1,32</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-7,48; -2,12</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-5,02; 0,7</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-6,07; -0,14</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,68%</t>
+          <t>-0,19%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,61%</t>
+          <t>-0,15%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-2,65%</t>
+          <t>-4,42%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-3,93%</t>
+          <t>-4,67%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,09%</t>
+          <t>-7,12%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-9,01%</t>
+          <t>-4,45%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-2,25%</t>
+          <t>-3,29%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-1,83%</t>
+          <t>-8,33%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-5,57%</t>
+          <t>-0,99%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-0,3%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-2,26%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-1,69%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-6,32%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-2,83%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-4,0%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 3,93</t>
+          <t>-4,87; 4,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 4,14</t>
+          <t>-4,59; 4,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 2,75</t>
+          <t>-9,54; 0,83</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 0,75</t>
+          <t>-9,72; 0,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 1,72</t>
+          <t>-12,19; -1,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-14,07; -3,81</t>
+          <t>-8,64; -0,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 0,86</t>
+          <t>-7,7; 1,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 1,71</t>
+          <t>-13,46; -3,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-9,41; -2,29</t>
+          <t>-6,51; 5,27</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-5,7; 6,22</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-5,33; 0,94</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-4,88; 1,75</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-9,55; -2,76</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-6,85; 0,99</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-8,22; -0,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
